--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bachw\Documents\GitHub\Bach-to-the-Future\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF6B26D5-436C-4B01-9648-C664B84C7310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A2995C28-4B11-4FE3-8C2C-0AF12FC93013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Price</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Date Posted</t>
   </si>
   <si>
     <t>Link</t>
@@ -566,8 +569,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -926,22 +930,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="7" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,68 +964,80 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44533</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="1">
+        <v>44525</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
         <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44577</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
